--- a/biology/Zoologie/Afroedura_transvaalica/Afroedura_transvaalica.xlsx
+++ b/biology/Zoologie/Afroedura_transvaalica/Afroedura_transvaalica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afroedura transvaalica est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afroedura transvaalica est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, au Botswana, au Mozambique et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, au Botswana, au Mozambique et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Afroedura transvaalica loveridgei a été élevée au rang d'espèce. En 2017, les études menées dans le parc national de Gorongosa au Mozambique montre que ce n'est pas A. transvaalica qui se trouve dans ce massif, mais une espèce distincte, baptisée A. gorongosa[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Afroedura transvaalica loveridgei a été élevée au rang d'espèce. En 2017, les études menées dans le parc national de Gorongosa au Mozambique montre que ce n'est pas A. transvaalica qui se trouve dans ce massif, mais une espèce distincte, baptisée A. gorongosa.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hewitt, 1925 : On some new species of Reptiles and Amphibians from South Africa. Record of the Albany Museum, Grahamstown, vol. 3, no 4, p. 343-370.</t>
         </is>
